--- a/Data/Processed/Angiosperms/missing_powo_ipni/Marcgraviaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Marcgraviaceae.xlsx
@@ -2192,7 +2192,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 25(3, Beibl. 60): 29. 1898 [19 Jul 1898] </t>
+          <t>Bot. Jahrb. Syst. 25(3, Beibl. 60): 29. 1898 [19 Jul 1898]</t>
         </is>
       </c>
       <c r="J34" t="b">
